--- a/reference/ACadFileExploration.xlsx
+++ b/reference/ACadFileExploration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Albert DC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Albert DC\Documents\Visual Studio 2022\Repos\ACadSharp\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A6525-378A-4C9D-AC49-213BAF09CEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2D751-81A1-4865-9D6E-CB4C75CD1F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="59">
   <si>
     <t xml:space="preserve"> AcadVersion</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Descriptors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AcadVersion</t>
+  </si>
+  <si>
+    <t>AC1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AcadVersion</t>
+  </si>
+  <si>
+    <t>AC1024</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747366D-51C1-4AA5-8ECB-D1D993728349}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127:N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +585,13 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +610,20 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -614,8 +642,20 @@
       <c r="H2">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -634,8 +674,20 @@
       <c r="H3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,8 +697,14 @@
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,8 +724,20 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -686,8 +756,20 @@
       <c r="H6">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -706,8 +788,20 @@
       <c r="H7">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>1024</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,8 +821,20 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -747,8 +853,20 @@
       <c r="H9">
         <v>416</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>1024</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -767,8 +885,20 @@
       <c r="H10">
         <v>13344</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1024</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>24608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +918,20 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -808,8 +950,20 @@
       <c r="H12">
         <v>13760</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>2048</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>25024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -828,8 +982,20 @@
       <c r="H13">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,8 +1016,20 @@
       <c r="H14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -870,8 +1048,20 @@
       <c r="H15">
         <v>14560</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>2208</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>25824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -890,8 +1080,20 @@
       <c r="H16">
         <v>1568</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>24992</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,8 +1113,20 @@
       <c r="H17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -931,8 +1145,20 @@
       <c r="H18">
         <v>16128</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>27200</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>27392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -951,8 +1177,20 @@
       <c r="H19">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>800</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>5</v>
       </c>
@@ -965,8 +1203,20 @@
       <c r="H20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -979,8 +1229,20 @@
       <c r="H21">
         <v>16320</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>28000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>27584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>7</v>
       </c>
@@ -993,1541 +1255,4112 @@
       <c r="H22">
         <v>11616</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>1568</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>6</v>
       </c>
       <c r="H24">
         <v>27936</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>29568</v>
+      </c>
+      <c r="M24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>38944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>7</v>
       </c>
       <c r="H25">
         <v>17056</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>15584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>6</v>
       </c>
       <c r="H27">
         <v>44992</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>29824</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>54528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>7</v>
       </c>
       <c r="H28">
         <v>8416</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>29344</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>13920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>9</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>6</v>
       </c>
       <c r="H30">
         <v>53408</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>59168</v>
+      </c>
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>68448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>7</v>
       </c>
       <c r="H31">
         <v>1216</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>11744</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>10</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33">
         <v>54624</v>
       </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>70912</v>
+      </c>
+      <c r="M33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>69344</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>7</v>
       </c>
       <c r="H34">
         <v>3136</v>
       </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>8416</v>
+      </c>
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>11</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>6</v>
       </c>
       <c r="H36">
         <v>57760</v>
       </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>79328</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>70208</v>
+      </c>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>7</v>
       </c>
       <c r="H37">
         <v>14080</v>
       </c>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>256</v>
+      </c>
+      <c r="M37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>6</v>
       </c>
       <c r="H39">
         <v>71840</v>
       </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>79584</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>71808</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>7</v>
       </c>
       <c r="H40">
         <v>3456</v>
       </c>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>7424</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>13</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>6</v>
       </c>
       <c r="H42">
         <v>75296</v>
       </c>
-    </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>87008</v>
+      </c>
+      <c r="M42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>72832</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>7</v>
       </c>
       <c r="H43">
         <v>224</v>
       </c>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>256</v>
+      </c>
+      <c r="M43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>14</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="H45">
         <v>75520</v>
       </c>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>87264</v>
+      </c>
+      <c r="M45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>73056</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>7</v>
       </c>
       <c r="H46">
         <v>2112</v>
       </c>
-    </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>256</v>
+      </c>
+      <c r="M46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>15</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>6</v>
       </c>
       <c r="H48">
         <v>77632</v>
       </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>87520</v>
+      </c>
+      <c r="M48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>73312</v>
+      </c>
+    </row>
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>7</v>
       </c>
       <c r="H49">
         <v>2016</v>
       </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>1792</v>
+      </c>
+      <c r="M49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>12576</v>
+      </c>
+    </row>
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>16</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="H51">
         <v>79648</v>
       </c>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>89312</v>
+      </c>
+      <c r="M51" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>85888</v>
+      </c>
+    </row>
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>7</v>
       </c>
       <c r="H52">
         <v>288</v>
       </c>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>2304</v>
+      </c>
+      <c r="M52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>17</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>6</v>
       </c>
       <c r="H54">
         <v>79936</v>
       </c>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>91616</v>
+      </c>
+      <c r="M54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54">
+        <v>90048</v>
+      </c>
+    </row>
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>7</v>
       </c>
       <c r="H55">
         <v>800</v>
       </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>256</v>
+      </c>
+      <c r="M55" t="s">
+        <v>7</v>
+      </c>
+      <c r="N55">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>18</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>6</v>
       </c>
       <c r="H57">
         <v>80736</v>
       </c>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>91872</v>
+      </c>
+      <c r="M57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>93056</v>
+      </c>
+    </row>
+    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>7</v>
       </c>
       <c r="H58">
         <v>576</v>
       </c>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>1024</v>
+      </c>
+      <c r="M58" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>19</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>6</v>
       </c>
       <c r="H60">
         <v>81312</v>
       </c>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>92896</v>
+      </c>
+      <c r="M60" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60">
+        <v>97120</v>
+      </c>
+    </row>
+    <row r="61" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>7</v>
       </c>
       <c r="H61">
         <v>1536</v>
       </c>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>4608</v>
+      </c>
+      <c r="M61" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="62" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G62" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>20</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>97504</v>
+      </c>
+      <c r="M63" t="s">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>100608</v>
+      </c>
+    </row>
+    <row r="64" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64">
         <v>228</v>
       </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <v>4608</v>
+      </c>
+      <c r="M64" t="s">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65">
         <v>288</v>
       </c>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66">
+        <v>33</v>
+      </c>
+      <c r="M66" t="s">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>103616</v>
+      </c>
+    </row>
+    <row r="67" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>15</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>228</v>
+      </c>
+      <c r="M67" t="s">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>16</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68">
+        <v>3200</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>106368</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>18</v>
       </c>
       <c r="H70">
         <v>3124680717</v>
       </c>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>7</v>
+      </c>
+      <c r="N70">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>19</v>
       </c>
       <c r="H71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>20</v>
       </c>
       <c r="H72">
         <v>82592</v>
       </c>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72">
+        <v>107200</v>
+      </c>
+    </row>
+    <row r="73" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>21</v>
       </c>
       <c r="H73">
         <v>81503</v>
       </c>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>22</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>23</v>
       </c>
       <c r="H75">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>107424</v>
+      </c>
+    </row>
+    <row r="76" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>24</v>
       </c>
       <c r="H76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N76">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>25</v>
       </c>
       <c r="H77">
         <v>81312</v>
       </c>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N77" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>26</v>
       </c>
       <c r="H78">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>107616</v>
+      </c>
+    </row>
+    <row r="79" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="80" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>28</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N80" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>29</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>6</v>
+      </c>
+      <c r="N81">
+        <v>109472</v>
+      </c>
+    </row>
+    <row r="82" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G82" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" t="s">
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>7</v>
+      </c>
+      <c r="N82">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="83" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>31</v>
       </c>
       <c r="H84">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>113152</v>
+      </c>
+    </row>
+    <row r="85" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>32</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M85" t="s">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>34</v>
       </c>
       <c r="H87">
         <v>29696</v>
       </c>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87">
+        <v>1097008187</v>
+      </c>
+      <c r="M87" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87">
+        <v>113440</v>
+      </c>
+    </row>
+    <row r="88" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88">
+        <v>1500</v>
+      </c>
+      <c r="M88" t="s">
+        <v>7</v>
+      </c>
+      <c r="N88">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="89" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>36</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>37</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90">
+        <v>1536</v>
+      </c>
+      <c r="M90" t="s">
+        <v>6</v>
+      </c>
+      <c r="N90">
+        <v>114432</v>
+      </c>
+    </row>
+    <row r="91" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>38</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>35</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>7</v>
+      </c>
+      <c r="N91">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="92" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N92" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>115136</v>
+      </c>
+    </row>
+    <row r="94" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>7</v>
+      </c>
+      <c r="N94">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="95" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>31</v>
       </c>
       <c r="H95">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95">
+        <v>2531133239</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>32</v>
       </c>
       <c r="H96">
         <v>1500</v>
       </c>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>40</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M97" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>34</v>
       </c>
       <c r="H98">
         <v>1536</v>
       </c>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98">
+        <v>1097008187</v>
+      </c>
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
+      <c r="N98">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>35</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99">
+        <v>738</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>36</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="M100" t="s">
+        <v>15</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>37</v>
       </c>
       <c r="H101">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101">
+        <v>768</v>
+      </c>
+      <c r="M101" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>38</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>35</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103">
+        <v>1990234370</v>
+      </c>
+    </row>
+    <row r="104" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G105" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105">
+        <v>116640</v>
+      </c>
+    </row>
+    <row r="106" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>31</v>
       </c>
       <c r="H106">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106">
+        <v>1067451454</v>
+      </c>
+      <c r="M106" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106">
+        <v>115396</v>
+      </c>
+    </row>
+    <row r="107" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>32</v>
       </c>
       <c r="H107">
         <v>738</v>
       </c>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="M107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M108" t="s">
+        <v>23</v>
+      </c>
+      <c r="N108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>34</v>
       </c>
       <c r="H109">
         <v>768</v>
       </c>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109">
+        <v>1097008187</v>
+      </c>
+      <c r="M109" t="s">
+        <v>24</v>
+      </c>
+      <c r="N109">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110">
+        <v>23727</v>
+      </c>
+      <c r="M110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110">
+        <v>115136</v>
+      </c>
+    </row>
+    <row r="111" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>36</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>37</v>
       </c>
       <c r="H112">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112">
+        <v>24576</v>
+      </c>
+      <c r="M112" t="s">
+        <v>27</v>
+      </c>
+      <c r="N112">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>38</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="M113" t="s">
+        <v>28</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G116" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>31</v>
       </c>
       <c r="H117">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117">
+        <v>1084884083</v>
+      </c>
+      <c r="M117" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="118" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>32</v>
       </c>
       <c r="H118">
         <v>12423</v>
       </c>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="M118" t="s">
+        <v>32</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M119" t="s">
+        <v>33</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>34</v>
       </c>
       <c r="H120">
         <v>13312</v>
       </c>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120">
+        <v>1097008187</v>
+      </c>
+      <c r="M120" t="s">
+        <v>34</v>
+      </c>
+      <c r="N120">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="121" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>35</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121">
+        <v>80</v>
+      </c>
+      <c r="M121" t="s">
+        <v>35</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>36</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>33</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="M122" t="s">
+        <v>36</v>
+      </c>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
         <v>37</v>
       </c>
       <c r="H123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>34</v>
+      </c>
+      <c r="K123">
+        <v>128</v>
+      </c>
+      <c r="M123" t="s">
+        <v>37</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>38</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>35</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>38</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>37</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G127" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>38</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>31</v>
       </c>
       <c r="H128">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128">
+        <v>1903822351</v>
+      </c>
+      <c r="M128" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="129" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
         <v>32</v>
       </c>
       <c r="H129">
         <v>65</v>
       </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="M129" t="s">
+        <v>32</v>
+      </c>
+      <c r="N129">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="130" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M130" t="s">
+        <v>33</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
         <v>34</v>
       </c>
       <c r="H131">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131">
+        <v>1097008187</v>
+      </c>
+      <c r="M131" t="s">
+        <v>34</v>
+      </c>
+      <c r="N131">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="132" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
         <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132">
+        <v>16</v>
+      </c>
+      <c r="M132" t="s">
+        <v>35</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>36</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>36</v>
+      </c>
+      <c r="N133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>37</v>
       </c>
       <c r="H134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>34</v>
+      </c>
+      <c r="K134">
+        <v>4096</v>
+      </c>
+      <c r="M134" t="s">
+        <v>37</v>
+      </c>
+      <c r="N134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="M135" t="s">
+        <v>38</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G138" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>31</v>
       </c>
       <c r="H139">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139">
+        <v>1621231027</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="140" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>32</v>
       </c>
       <c r="H140">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>40</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="M140" t="s">
+        <v>32</v>
+      </c>
+      <c r="N140">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="141" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>33</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M141" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>34</v>
       </c>
       <c r="H142">
         <v>29696</v>
       </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142">
+        <v>1097008187</v>
+      </c>
+      <c r="M142" t="s">
+        <v>34</v>
+      </c>
+      <c r="N142">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="143" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143">
+        <v>260931</v>
+      </c>
+      <c r="M143" t="s">
+        <v>35</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>33</v>
+      </c>
+      <c r="K144">
+        <v>5</v>
+      </c>
+      <c r="M144" t="s">
+        <v>36</v>
+      </c>
+      <c r="N144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
         <v>37</v>
       </c>
       <c r="H145">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>34</v>
+      </c>
+      <c r="K145">
+        <v>63488</v>
+      </c>
+      <c r="M145" t="s">
+        <v>37</v>
+      </c>
+      <c r="N145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
         <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>35</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="M146" t="s">
+        <v>38</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>36</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>37</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
         <v>31</v>
       </c>
       <c r="H150">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150">
+        <v>1733035433</v>
+      </c>
+      <c r="M150" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="151" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
         <v>32</v>
       </c>
       <c r="H151">
         <v>205843</v>
       </c>
-    </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>40</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="M151" t="s">
+        <v>32</v>
+      </c>
+      <c r="N151">
+        <v>23727</v>
+      </c>
+    </row>
+    <row r="152" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
         <v>33</v>
       </c>
       <c r="H152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M152" t="s">
+        <v>33</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
         <v>34</v>
       </c>
       <c r="H153">
         <v>29696</v>
       </c>
-    </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153">
+        <v>1097008187</v>
+      </c>
+      <c r="M153" t="s">
+        <v>34</v>
+      </c>
+      <c r="N153">
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="154" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
         <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154">
+        <v>53</v>
+      </c>
+      <c r="M154" t="s">
+        <v>35</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
         <v>36</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>33</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>36</v>
+      </c>
+      <c r="N155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
         <v>37</v>
       </c>
       <c r="H156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>34</v>
+      </c>
+      <c r="K156">
+        <v>63488</v>
+      </c>
+      <c r="M156" t="s">
+        <v>37</v>
+      </c>
+      <c r="N156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
         <v>38</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>35</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="M157" t="s">
+        <v>38</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>36</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
         <v>31</v>
       </c>
       <c r="H161">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>39</v>
+      </c>
+      <c r="K161">
+        <v>2011301407</v>
+      </c>
+      <c r="M161" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="162" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>32</v>
       </c>
       <c r="H162">
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>40</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="M162" t="s">
+        <v>32</v>
+      </c>
+      <c r="N162">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
         <v>33</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M163" t="s">
+        <v>33</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G164" t="s">
         <v>34</v>
       </c>
       <c r="H164">
         <v>29696</v>
       </c>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164">
+        <v>1097008187</v>
+      </c>
+      <c r="M164" t="s">
+        <v>34</v>
+      </c>
+      <c r="N164">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
         <v>35</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165">
+        <v>6</v>
+      </c>
+      <c r="M165" t="s">
+        <v>35</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G166" t="s">
         <v>36</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>33</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>36</v>
+      </c>
+      <c r="N166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
         <v>37</v>
       </c>
       <c r="H167">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>34</v>
+      </c>
+      <c r="K167">
+        <v>1024</v>
+      </c>
+      <c r="M167" t="s">
+        <v>37</v>
+      </c>
+      <c r="N167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
         <v>38</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>35</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="M168" t="s">
+        <v>38</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="M170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G171" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>38</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
         <v>31</v>
       </c>
       <c r="H172">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>39</v>
+      </c>
+      <c r="K172">
+        <v>1242825934</v>
+      </c>
+      <c r="M172" t="s">
+        <v>31</v>
+      </c>
+      <c r="N172">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="173" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
         <v>32</v>
       </c>
       <c r="H173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>40</v>
+      </c>
+      <c r="K173">
+        <v>4</v>
+      </c>
+      <c r="M173" t="s">
+        <v>32</v>
+      </c>
+      <c r="N173">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G174" t="s">
         <v>33</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M174" t="s">
+        <v>33</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>34</v>
       </c>
       <c r="H175">
         <v>29696</v>
       </c>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175">
+        <v>1097008187</v>
+      </c>
+      <c r="M175" t="s">
+        <v>34</v>
+      </c>
+      <c r="N175">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="176" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
         <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>32</v>
+      </c>
+      <c r="K176">
+        <v>1709</v>
+      </c>
+      <c r="M176" t="s">
+        <v>35</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
         <v>36</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>33</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="M177" t="s">
+        <v>36</v>
+      </c>
+      <c r="N177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
         <v>37</v>
       </c>
       <c r="H178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>34</v>
+      </c>
+      <c r="K178">
+        <v>63488</v>
+      </c>
+      <c r="M178" t="s">
+        <v>37</v>
+      </c>
+      <c r="N178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
         <v>38</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>35</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="M179" t="s">
+        <v>38</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G180" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>36</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G181" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>37</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G182" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
         <v>31</v>
       </c>
       <c r="H183">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183">
+        <v>1064174672</v>
+      </c>
+      <c r="M183" t="s">
+        <v>31</v>
+      </c>
+      <c r="N183">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="184" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
         <v>32</v>
       </c>
       <c r="H184">
         <v>1812</v>
       </c>
-    </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>40</v>
+      </c>
+      <c r="K184">
+        <v>4</v>
+      </c>
+      <c r="M184" t="s">
+        <v>32</v>
+      </c>
+      <c r="N184">
+        <v>483450</v>
+      </c>
+    </row>
+    <row r="185" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G185" t="s">
         <v>33</v>
       </c>
       <c r="H185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M185" t="s">
+        <v>33</v>
+      </c>
+      <c r="N185">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G186" t="s">
         <v>34</v>
       </c>
       <c r="H186">
         <v>29696</v>
       </c>
-    </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>31</v>
+      </c>
+      <c r="K186">
+        <v>1097008187</v>
+      </c>
+      <c r="M186" t="s">
+        <v>34</v>
+      </c>
+      <c r="N186">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="187" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G187" t="s">
         <v>35</v>
       </c>
       <c r="H187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187">
+        <v>3409</v>
+      </c>
+      <c r="M187" t="s">
+        <v>35</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G188" t="s">
         <v>36</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>33</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
+        <v>36</v>
+      </c>
+      <c r="N188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G189" t="s">
         <v>37</v>
       </c>
       <c r="H189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>34</v>
+      </c>
+      <c r="K189">
+        <v>63488</v>
+      </c>
+      <c r="M189" t="s">
+        <v>37</v>
+      </c>
+      <c r="N189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G190" t="s">
         <v>38</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>35</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="M190" t="s">
+        <v>38</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>37</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G193" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>38</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
         <v>31</v>
       </c>
       <c r="H194">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194">
+        <v>1062470751</v>
+      </c>
+      <c r="M194" t="s">
+        <v>31</v>
+      </c>
+      <c r="N194">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="195" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
         <v>32</v>
       </c>
       <c r="H195">
         <v>2033</v>
       </c>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="M195" t="s">
+        <v>32</v>
+      </c>
+      <c r="N195">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G196" t="s">
         <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M196" t="s">
+        <v>33</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
         <v>34</v>
       </c>
       <c r="H197">
         <v>29696</v>
       </c>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>31</v>
+      </c>
+      <c r="K197">
+        <v>1097008187</v>
+      </c>
+      <c r="M197" t="s">
+        <v>34</v>
+      </c>
+      <c r="N197">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="198" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
         <v>35</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>32</v>
+      </c>
+      <c r="K198">
+        <v>123</v>
+      </c>
+      <c r="M198" t="s">
+        <v>35</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
         <v>36</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>33</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="M199" t="s">
+        <v>36</v>
+      </c>
+      <c r="N199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
         <v>37</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>34</v>
+      </c>
+      <c r="K200">
+        <v>2048</v>
+      </c>
+      <c r="M200" t="s">
+        <v>37</v>
+      </c>
+      <c r="N200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
         <v>38</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>35</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="M201" t="s">
+        <v>38</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>36</v>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>37</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G204" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
         <v>31</v>
       </c>
       <c r="H205">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>39</v>
+      </c>
+      <c r="K205">
+        <v>1425016074</v>
+      </c>
+      <c r="M205" t="s">
+        <v>31</v>
+      </c>
+      <c r="N205">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="206" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
         <v>32</v>
       </c>
       <c r="H206">
         <v>123</v>
       </c>
-    </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="M206" t="s">
+        <v>32</v>
+      </c>
+      <c r="N206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
         <v>33</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M207" t="s">
+        <v>33</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
         <v>34</v>
       </c>
       <c r="H208">
         <v>29696</v>
       </c>
-    </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208">
+        <v>1097008187</v>
+      </c>
+      <c r="M208" t="s">
+        <v>34</v>
+      </c>
+      <c r="N208">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="209" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G209" t="s">
         <v>35</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>32</v>
+      </c>
+      <c r="K209">
+        <v>855</v>
+      </c>
+      <c r="M209" t="s">
+        <v>35</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
         <v>36</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>33</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
+        <v>36</v>
+      </c>
+      <c r="N210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G211" t="s">
         <v>37</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K211">
+        <v>2048</v>
+      </c>
+      <c r="M211" t="s">
+        <v>37</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G212" t="s">
         <v>38</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>35</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="M212" t="s">
+        <v>38</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>36</v>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>37</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G215" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>38</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
         <v>31</v>
       </c>
       <c r="H216">
         <v>1097008187</v>
       </c>
-    </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>39</v>
+      </c>
+      <c r="K216">
+        <v>850920409</v>
+      </c>
+      <c r="M216" t="s">
+        <v>31</v>
+      </c>
+      <c r="N216">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="217" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
         <v>32</v>
       </c>
       <c r="H217">
         <v>643</v>
       </c>
-    </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>40</v>
+      </c>
+      <c r="K217">
+        <v>4</v>
+      </c>
+      <c r="M217" t="s">
+        <v>32</v>
+      </c>
+      <c r="N217">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="218" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
         <v>33</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>33</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G219" t="s">
         <v>34</v>
       </c>
       <c r="H219">
         <v>29696</v>
       </c>
-    </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>34</v>
+      </c>
+      <c r="N219">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="220" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
         <v>35</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>35</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G221" t="s">
         <v>36</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>36</v>
+      </c>
+      <c r="N221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G222" t="s">
         <v>37</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>37</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G223" t="s">
         <v>38</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>38</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G224" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G225" t="s">
+        <v>40</v>
+      </c>
+      <c r="M225" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>31</v>
+      </c>
+      <c r="N227">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="228" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>32</v>
+      </c>
+      <c r="N228">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="229" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M229" t="s">
+        <v>33</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>34</v>
+      </c>
+      <c r="N230">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="231" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>35</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>36</v>
+      </c>
+      <c r="N232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>37</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>38</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M238" t="s">
+        <v>31</v>
+      </c>
+      <c r="N238">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="239" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M239" t="s">
+        <v>32</v>
+      </c>
+      <c r="N239">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M240" t="s">
+        <v>33</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M241" t="s">
+        <v>34</v>
+      </c>
+      <c r="N241">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="242" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M242" t="s">
+        <v>35</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M243" t="s">
+        <v>36</v>
+      </c>
+      <c r="N243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>37</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M245" t="s">
+        <v>38</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M247" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M248" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M249" t="s">
+        <v>31</v>
+      </c>
+      <c r="N249">
+        <v>1097008187</v>
+      </c>
+    </row>
+    <row r="250" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M250" t="s">
+        <v>32</v>
+      </c>
+      <c r="N250">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="251" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>33</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M252" t="s">
+        <v>34</v>
+      </c>
+      <c r="N252">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="253" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>35</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M254" t="s">
+        <v>36</v>
+      </c>
+      <c r="N254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>37</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M256" t="s">
+        <v>38</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M257" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M258" t="s">
         <v>40</v>
       </c>
     </row>

--- a/reference/ACadFileExploration.xlsx
+++ b/reference/ACadFileExploration.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Albert DC\Documents\Visual Studio 2022\Repos\ACadSharp\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2D751-81A1-4865-9D6E-CB4C75CD1F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583579B-BA1B-4C65-A632-CEDBFE3090FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SectionStreams" sheetId="1" r:id="rId1"/>
+    <sheet name="dxfclasses_AC1032" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="161">
   <si>
     <t xml:space="preserve"> AcadVersion</t>
   </si>
@@ -211,6 +212,312 @@
   </si>
   <si>
     <t>AC1024</t>
+  </si>
+  <si>
+    <t>DxfClass</t>
+  </si>
+  <si>
+    <t>DxfClass.DxfName</t>
+  </si>
+  <si>
+    <t>DxfClass.CppClassName</t>
+  </si>
+  <si>
+    <t>DxfClass.ApplicationName</t>
+  </si>
+  <si>
+    <t>DxfClass.ProxyFlags</t>
+  </si>
+  <si>
+    <t>DxfClass.InstanceCount</t>
+  </si>
+  <si>
+    <t>DxfClass.WasZombie</t>
+  </si>
+  <si>
+    <t>DxfClass.IsAnEntity</t>
+  </si>
+  <si>
+    <t>DxfClass.ClassNumber</t>
+  </si>
+  <si>
+    <t>DxfClass.ItemClassId</t>
+  </si>
+  <si>
+    <t>DxfClass.DwgVersion</t>
+  </si>
+  <si>
+    <t>DxfClass.MaintenanceVersion</t>
+  </si>
+  <si>
+    <t>ACDBDICTIONARYWDFLT:500</t>
+  </si>
+  <si>
+    <t>ACDBDICTIONARYWDFLT</t>
+  </si>
+  <si>
+    <t>AcDbDictionaryWithDefault</t>
+  </si>
+  <si>
+    <t>ObjectDBX Classes</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ACDBPLACEHOLDER:501</t>
+  </si>
+  <si>
+    <t>ACDBPLACEHOLDER</t>
+  </si>
+  <si>
+    <t>AcDbPlaceHolder</t>
+  </si>
+  <si>
+    <t>LAYOUT:502</t>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+  </si>
+  <si>
+    <t>AcDbLayout</t>
+  </si>
+  <si>
+    <t>DICTIONARYVAR:503</t>
+  </si>
+  <si>
+    <t>DICTIONARYVAR</t>
+  </si>
+  <si>
+    <t>AcDbDictionaryVar</t>
+  </si>
+  <si>
+    <t>TABLESTYLE:504</t>
+  </si>
+  <si>
+    <t>TABLESTYLE</t>
+  </si>
+  <si>
+    <t>AcDbTableStyle</t>
+  </si>
+  <si>
+    <t>MATERIAL:505</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>AcDbMaterial</t>
+  </si>
+  <si>
+    <t>EraseAllowed, CloningAllowed, DisablesProxyWarningDialog</t>
+  </si>
+  <si>
+    <t>VISUALSTYLE:506</t>
+  </si>
+  <si>
+    <t>VISUALSTYLE</t>
+  </si>
+  <si>
+    <t>AcDbVisualStyle</t>
+  </si>
+  <si>
+    <t>SCALE:507</t>
+  </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>AcDbScale</t>
+  </si>
+  <si>
+    <t>MLEADERSTYLE:508</t>
+  </si>
+  <si>
+    <t>MLEADERSTYLE</t>
+  </si>
+  <si>
+    <t>AcDbMLeaderStyle</t>
+  </si>
+  <si>
+    <t>ACDB_MLEADERSTYLE_CLASS</t>
+  </si>
+  <si>
+    <t>AC1032</t>
+  </si>
+  <si>
+    <t>CELLSTYLEMAP:509</t>
+  </si>
+  <si>
+    <t>CELLSTYLEMAP</t>
+  </si>
+  <si>
+    <t>AcDbCellStyleMap</t>
+  </si>
+  <si>
+    <t>CloningAllowed, DisablesProxyWarningDialog</t>
+  </si>
+  <si>
+    <t>EXACXREFPANELOBJECT:510</t>
+  </si>
+  <si>
+    <t>EXACXREFPANELOBJECT</t>
+  </si>
+  <si>
+    <t>ExAcXREFPanelObject</t>
+  </si>
+  <si>
+    <t>EXAC_ESW</t>
+  </si>
+  <si>
+    <t>EraseAllowed, DisablesProxyWarningDialog</t>
+  </si>
+  <si>
+    <t>MC0_0</t>
+  </si>
+  <si>
+    <t>NPOCOLLECTION:511</t>
+  </si>
+  <si>
+    <t>NPOCOLLECTION</t>
+  </si>
+  <si>
+    <t>AcDbImpNonPersistentObjectsCollection</t>
+  </si>
+  <si>
+    <t>LAYER_INDEX:512</t>
+  </si>
+  <si>
+    <t>LAYER_INDEX</t>
+  </si>
+  <si>
+    <t>AcDbLayerIndex</t>
+  </si>
+  <si>
+    <t>SPATIAL_INDEX:513</t>
+  </si>
+  <si>
+    <t>SPATIAL_INDEX</t>
+  </si>
+  <si>
+    <t>AcDbSpatialIndex</t>
+  </si>
+  <si>
+    <t>IDBUFFER:514</t>
+  </si>
+  <si>
+    <t>IDBUFFER</t>
+  </si>
+  <si>
+    <t>AcDbIdBuffer</t>
+  </si>
+  <si>
+    <t>ACDBSECTIONVIEWSTYLE:515</t>
+  </si>
+  <si>
+    <t>ACDBSECTIONVIEWSTYLE</t>
+  </si>
+  <si>
+    <t>AcDbSectionViewStyle</t>
+  </si>
+  <si>
+    <t>ACDBDETAILVIEWSTYLE:516</t>
+  </si>
+  <si>
+    <t>ACDBDETAILVIEWSTYLE</t>
+  </si>
+  <si>
+    <t>AcDbDetailViewStyle</t>
+  </si>
+  <si>
+    <t>MESH:517</t>
+  </si>
+  <si>
+    <t>MESH</t>
+  </si>
+  <si>
+    <t>AcDbSubDMesh</t>
+  </si>
+  <si>
+    <t>SORTENTSTABLE:518</t>
+  </si>
+  <si>
+    <t>SORTENTSTABLE</t>
+  </si>
+  <si>
+    <t>AcDbSortentsTable</t>
+  </si>
+  <si>
+    <t>ACDB_TEXTOBJECTCONTEXTDATA_CLASS:519</t>
+  </si>
+  <si>
+    <t>ACDB_TEXTOBJECTCONTEXTDATA_CLASS</t>
+  </si>
+  <si>
+    <t>AcDbTextObjectContextData</t>
+  </si>
+  <si>
+    <t>WIPEOUT:520</t>
+  </si>
+  <si>
+    <t>WIPEOUT</t>
+  </si>
+  <si>
+    <t>AcDbWipeout</t>
+  </si>
+  <si>
+    <t>WipeOut|Product Desc: Object Enabler for WipeOut entity | Company: Autodesk, Inc. | WEB Address: www.autodesk.com</t>
+  </si>
+  <si>
+    <t>WIPEOUTVARIABLES:521</t>
+  </si>
+  <si>
+    <t>WIPEOUTVARIABLES</t>
+  </si>
+  <si>
+    <t>AcDbWipeoutVariables</t>
+  </si>
+  <si>
+    <t>"WipeOut|Product Desc:     WipeOut Dbx Application|Company:          Autodesk, Inc.|WEB Address:      www.autodesk.com"</t>
+  </si>
+  <si>
+    <t>DIMASSOC:522</t>
+  </si>
+  <si>
+    <t>DIMASSOC</t>
+  </si>
+  <si>
+    <t>AcDbDimAssoc</t>
+  </si>
+  <si>
+    <t>"AcDbDimAssoc|Product Desc:     AcDim ARX App For Dimension|Company:          Autodesk, Inc.|WEB Address:      www.autodesk.com"</t>
+  </si>
+  <si>
+    <t>ACAD_TABLE:523</t>
+  </si>
+  <si>
+    <t>ACAD_TABLE</t>
+  </si>
+  <si>
+    <t>AcDbTable</t>
+  </si>
+  <si>
+    <t>TABLECONTENT:524</t>
+  </si>
+  <si>
+    <t>TABLECONTENT</t>
+  </si>
+  <si>
+    <t>AcDbTableContent</t>
+  </si>
+  <si>
+    <t>TABLEGEOMETRY:525</t>
+  </si>
+  <si>
+    <t>TABLEGEOMETRY</t>
+  </si>
+  <si>
+    <t>AcDbTableGeometry</t>
   </si>
 </sst>
 </file>
@@ -573,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747366D-51C1-4AA5-8ECB-D1D993728349}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127:N127"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,4 +5675,1060 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA1AD85-9789-4FBB-B477-52DC280E0057}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>499</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>501</v>
+      </c>
+      <c r="J3">
+        <v>499</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>502</v>
+      </c>
+      <c r="J4">
+        <v>499</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>503</v>
+      </c>
+      <c r="J5">
+        <v>499</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>4095</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>504</v>
+      </c>
+      <c r="J6">
+        <v>499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>505</v>
+      </c>
+      <c r="J7">
+        <v>499</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>4095</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>506</v>
+      </c>
+      <c r="J8">
+        <v>499</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>507</v>
+      </c>
+      <c r="J9">
+        <v>499</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>4095</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>508</v>
+      </c>
+      <c r="J10">
+        <v>499</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>509</v>
+      </c>
+      <c r="J11">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>510</v>
+      </c>
+      <c r="J12">
+        <v>499</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>511</v>
+      </c>
+      <c r="J13">
+        <v>499</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>512</v>
+      </c>
+      <c r="J14">
+        <v>499</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>513</v>
+      </c>
+      <c r="J15">
+        <v>499</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>514</v>
+      </c>
+      <c r="J16">
+        <v>499</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>515</v>
+      </c>
+      <c r="J17">
+        <v>499</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>516</v>
+      </c>
+      <c r="J18">
+        <v>499</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>517</v>
+      </c>
+      <c r="J19">
+        <v>498</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>518</v>
+      </c>
+      <c r="J20">
+        <v>499</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>519</v>
+      </c>
+      <c r="J21">
+        <v>499</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22">
+        <v>2175</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>520</v>
+      </c>
+      <c r="J22">
+        <v>498</v>
+      </c>
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>521</v>
+      </c>
+      <c r="J23">
+        <v>499</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>522</v>
+      </c>
+      <c r="J24">
+        <v>499</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>523</v>
+      </c>
+      <c r="J25">
+        <v>498</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>524</v>
+      </c>
+      <c r="J26">
+        <v>499</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>525</v>
+      </c>
+      <c r="J27">
+        <v>499</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/ACadFileExploration.xlsx
+++ b/reference/ACadFileExploration.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Albert DC\Documents\Visual Studio 2022\Repos\ACadSharp\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583579B-BA1B-4C65-A632-CEDBFE3090FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C913E-8E2D-4A4F-A368-FA00CC9833D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionStreams" sheetId="1" r:id="rId1"/>
     <sheet name="dxfclasses_AC1032" sheetId="2" r:id="rId2"/>
+    <sheet name="dxfclasses_AC1018" sheetId="3" r:id="rId3"/>
+    <sheet name="dxfclasses_AC1014" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="173">
   <si>
     <t xml:space="preserve"> AcadVersion</t>
   </si>
@@ -518,6 +520,42 @@
   </si>
   <si>
     <t>AcDbTableGeometry</t>
+  </si>
+  <si>
+    <t>DATATABLE:526</t>
+  </si>
+  <si>
+    <t>DATATABLE</t>
+  </si>
+  <si>
+    <t>AcDbDataTable</t>
+  </si>
+  <si>
+    <t>LWPOLYLINE:527</t>
+  </si>
+  <si>
+    <t>LWPOLYLINE</t>
+  </si>
+  <si>
+    <t>AcDbPolyline</t>
+  </si>
+  <si>
+    <t>HATCH:528</t>
+  </si>
+  <si>
+    <t>HATCH</t>
+  </si>
+  <si>
+    <t>AcDbHatch</t>
+  </si>
+  <si>
+    <t>XRECORD:529</t>
+  </si>
+  <si>
+    <t>XRECORD</t>
+  </si>
+  <si>
+    <t>AcDbXrecord</t>
   </si>
 </sst>
 </file>
@@ -6731,4 +6769,2276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E99310-4BF5-4F0C-B6FE-9D762D756013}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>499</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>501</v>
+      </c>
+      <c r="J3">
+        <v>499</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>502</v>
+      </c>
+      <c r="J4">
+        <v>499</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>503</v>
+      </c>
+      <c r="J5">
+        <v>499</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>4095</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>504</v>
+      </c>
+      <c r="J6">
+        <v>499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>505</v>
+      </c>
+      <c r="J7">
+        <v>499</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>4095</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>506</v>
+      </c>
+      <c r="J8">
+        <v>499</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>507</v>
+      </c>
+      <c r="J9">
+        <v>499</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>4095</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>508</v>
+      </c>
+      <c r="J10">
+        <v>499</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>509</v>
+      </c>
+      <c r="J11">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>510</v>
+      </c>
+      <c r="J12">
+        <v>499</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>511</v>
+      </c>
+      <c r="J13">
+        <v>499</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>512</v>
+      </c>
+      <c r="J14">
+        <v>499</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>513</v>
+      </c>
+      <c r="J15">
+        <v>499</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>514</v>
+      </c>
+      <c r="J16">
+        <v>499</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>515</v>
+      </c>
+      <c r="J17">
+        <v>499</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>516</v>
+      </c>
+      <c r="J18">
+        <v>499</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>517</v>
+      </c>
+      <c r="J19">
+        <v>498</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>518</v>
+      </c>
+      <c r="J20">
+        <v>499</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>519</v>
+      </c>
+      <c r="J21">
+        <v>499</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22">
+        <v>2175</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>520</v>
+      </c>
+      <c r="J22">
+        <v>498</v>
+      </c>
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>521</v>
+      </c>
+      <c r="J23">
+        <v>499</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>522</v>
+      </c>
+      <c r="J24">
+        <v>499</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>523</v>
+      </c>
+      <c r="J25">
+        <v>498</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>524</v>
+      </c>
+      <c r="J26">
+        <v>499</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>525</v>
+      </c>
+      <c r="J27">
+        <v>499</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>526</v>
+      </c>
+      <c r="J28">
+        <v>499</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D528BA5C-56B6-47DD-B6C1-2699F90231A5}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>499</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>501</v>
+      </c>
+      <c r="J3">
+        <v>499</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>502</v>
+      </c>
+      <c r="J4">
+        <v>499</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>503</v>
+      </c>
+      <c r="J5">
+        <v>499</v>
+      </c>
+      <c r="K5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>4095</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>504</v>
+      </c>
+      <c r="J6">
+        <v>499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>505</v>
+      </c>
+      <c r="J7">
+        <v>499</v>
+      </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>4095</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>506</v>
+      </c>
+      <c r="J8">
+        <v>499</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>507</v>
+      </c>
+      <c r="J9">
+        <v>499</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>4095</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>508</v>
+      </c>
+      <c r="J10">
+        <v>499</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>509</v>
+      </c>
+      <c r="J11">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>510</v>
+      </c>
+      <c r="J12">
+        <v>499</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>511</v>
+      </c>
+      <c r="J13">
+        <v>499</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>512</v>
+      </c>
+      <c r="J14">
+        <v>499</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>513</v>
+      </c>
+      <c r="J15">
+        <v>499</v>
+      </c>
+      <c r="K15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>514</v>
+      </c>
+      <c r="J16">
+        <v>499</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>515</v>
+      </c>
+      <c r="J17">
+        <v>499</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>516</v>
+      </c>
+      <c r="J18">
+        <v>499</v>
+      </c>
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>517</v>
+      </c>
+      <c r="J19">
+        <v>498</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>518</v>
+      </c>
+      <c r="J20">
+        <v>499</v>
+      </c>
+      <c r="K20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>519</v>
+      </c>
+      <c r="J21">
+        <v>499</v>
+      </c>
+      <c r="K21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22">
+        <v>2175</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>520</v>
+      </c>
+      <c r="J22">
+        <v>498</v>
+      </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>521</v>
+      </c>
+      <c r="J23">
+        <v>499</v>
+      </c>
+      <c r="K23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>522</v>
+      </c>
+      <c r="J24">
+        <v>499</v>
+      </c>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>523</v>
+      </c>
+      <c r="J25">
+        <v>498</v>
+      </c>
+      <c r="K25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>524</v>
+      </c>
+      <c r="J26">
+        <v>499</v>
+      </c>
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>525</v>
+      </c>
+      <c r="J27">
+        <v>499</v>
+      </c>
+      <c r="K27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>526</v>
+      </c>
+      <c r="J28">
+        <v>499</v>
+      </c>
+      <c r="K28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>527</v>
+      </c>
+      <c r="J29">
+        <v>498</v>
+      </c>
+      <c r="K29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>528</v>
+      </c>
+      <c r="J30">
+        <v>498</v>
+      </c>
+      <c r="K30" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>529</v>
+      </c>
+      <c r="J31">
+        <v>499</v>
+      </c>
+      <c r="K31" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/ACadFileExploration.xlsx
+++ b/reference/ACadFileExploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Albert DC\Documents\Visual Studio 2022\Repos\ACadSharp\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C913E-8E2D-4A4F-A368-FA00CC9833D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904E761-3EFE-4204-85C5-E94E8D883C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
+    <workbookView minimized="1" xWindow="1035" yWindow="4245" windowWidth="16815" windowHeight="11505" activeTab="3" xr2:uid="{1585E541-BAF3-41D2-BE46-CBD6626A87A9}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionStreams" sheetId="1" r:id="rId1"/>
@@ -5719,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA1AD85-9789-4FBB-B477-52DC280E0057}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,10 +6776,14 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7854,11 +7858,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D528BA5C-56B6-47DD-B6C1-2699F90231A5}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
